--- a/CA-PLC-MB-Reg.xlsx
+++ b/CA-PLC-MB-Reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5102A5-C348-429E-9B62-758C80F9CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F627F-7C32-4D2E-AA52-9D592CE6CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42950" yWindow="1520" windowWidth="21510" windowHeight="15460" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
   </bookViews>
   <sheets>
     <sheet name="ModBus" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>Field E-stop</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Field IO Connection</t>
   </si>
   <si>
-    <t>Power Port Motors</t>
-  </si>
-  <si>
     <t>Match (Counter) Reset</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>Contol Panel IO Link ArmorBlock</t>
-  </si>
-  <si>
     <t>1732E-16CFGM12</t>
   </si>
   <si>
@@ -257,81 +251,6 @@
     <t>DS8/9</t>
   </si>
   <si>
-    <t>ACC6/7</t>
-  </si>
-  <si>
-    <t>rAcc15/14</t>
-  </si>
-  <si>
-    <t>rAcc13/12</t>
-  </si>
-  <si>
-    <t>rAcc11/10</t>
-  </si>
-  <si>
-    <t>rAcc09/08</t>
-  </si>
-  <si>
-    <t>bAcc15/14</t>
-  </si>
-  <si>
-    <t>bAcc13/12</t>
-  </si>
-  <si>
-    <t>bAcc11/10</t>
-  </si>
-  <si>
-    <t>bAcc09/08</t>
-  </si>
-  <si>
-    <t>Near Exit Low Color</t>
-  </si>
-  <si>
-    <t>Near Exit High Color</t>
-  </si>
-  <si>
-    <t>Red Exit Low Color</t>
-  </si>
-  <si>
-    <t>Red Exit Hight Color</t>
-  </si>
-  <si>
-    <t>Far Exit Low Color</t>
-  </si>
-  <si>
-    <t>Far Exit High Color</t>
-  </si>
-  <si>
-    <t>Blue Exit Low Color</t>
-  </si>
-  <si>
-    <t>Blue Exit High Color</t>
-  </si>
-  <si>
-    <t>IO 1 (B)</t>
-  </si>
-  <si>
-    <t>IO 0 (A)</t>
-  </si>
-  <si>
-    <t>IO 2 (A)</t>
-  </si>
-  <si>
-    <t>IO 3 (B)</t>
-  </si>
-  <si>
-    <t>IO 4 (A)</t>
-  </si>
-  <si>
-    <t>IO 5 (B)</t>
-  </si>
-  <si>
-    <t>IO 6 (A)</t>
-  </si>
-  <si>
-    <t>IO 7 (B)</t>
-  </si>
-  <si>
     <t>Red ACC ArmorBlock</t>
   </si>
   <si>
@@ -356,191 +275,35 @@
     <t>See IP Page</t>
   </si>
   <si>
-    <t>  redLowerHubBlue</t>
-  </si>
-  <si>
-    <t>  redLowerHubFar</t>
-  </si>
-  <si>
-    <t>  redLowerHubNear</t>
-  </si>
-  <si>
-    <t>  redLowerHubRed</t>
-  </si>
-  <si>
-    <t>  redUpperHubBlue</t>
-  </si>
-  <si>
-    <t>  redUpperHubFar</t>
-  </si>
-  <si>
-    <t>  redUpperHubNear</t>
-  </si>
-  <si>
-    <t>  redUpperHubRed</t>
-  </si>
-  <si>
-    <t>  blueLowerHubBlue</t>
-  </si>
-  <si>
-    <t>  blueLowerHubFar</t>
-  </si>
-  <si>
-    <t>  blueLowerHubNear</t>
-  </si>
-  <si>
-    <t>  blueLowerHubRed</t>
-  </si>
-  <si>
-    <t>  blueUpperHubBlue</t>
-  </si>
-  <si>
-    <t>  blueUpperHubFar</t>
-  </si>
-  <si>
-    <t>  blueUpperHubNear</t>
-  </si>
-  <si>
-    <t>  blueUpperHubRed</t>
-  </si>
-  <si>
-    <t>Total Near Exit Low Count</t>
-  </si>
-  <si>
-    <t>Total Near Exit High Count</t>
-  </si>
-  <si>
-    <t>Total Red Exit Low Count</t>
-  </si>
-  <si>
-    <t>Total Red Exit Hight Count</t>
-  </si>
-  <si>
-    <t>Total Far Exit Low Count</t>
-  </si>
-  <si>
-    <t>Total Far Exit High Count</t>
-  </si>
-  <si>
-    <t>Total Blue Exit Low Count</t>
-  </si>
-  <si>
-    <t>Total Blue Exit High Count</t>
-  </si>
-  <si>
-    <t>rAcc14</t>
-  </si>
-  <si>
-    <t>rAcc15</t>
-  </si>
-  <si>
-    <t>rAcc12</t>
-  </si>
-  <si>
-    <t>rAcc13</t>
-  </si>
-  <si>
-    <t>rAcc10</t>
-  </si>
-  <si>
-    <t>rAcc11</t>
-  </si>
-  <si>
-    <t>rAcc08</t>
-  </si>
-  <si>
-    <t>rAcc09</t>
-  </si>
-  <si>
-    <t>bAcc14</t>
-  </si>
-  <si>
-    <t>bAcc15</t>
-  </si>
-  <si>
-    <t>bAcc12</t>
-  </si>
-  <si>
-    <t>bAcc13</t>
-  </si>
-  <si>
-    <t>bAcc10</t>
-  </si>
-  <si>
-    <t>bAcc11</t>
-  </si>
-  <si>
-    <t>bAcc08</t>
-  </si>
-  <si>
-    <t>bAcc09</t>
-  </si>
-  <si>
-    <t>Near Exit Low Beambreak A</t>
-  </si>
-  <si>
-    <t>Near Exit High Beambreak A</t>
-  </si>
-  <si>
-    <t>Red Exit Low Beambreak A</t>
-  </si>
-  <si>
-    <t>Red Exit High Beambreak A</t>
-  </si>
-  <si>
-    <t>Far Exit Low Beambreak A</t>
-  </si>
-  <si>
-    <t>Far Exit High Beambreak A</t>
-  </si>
-  <si>
-    <t>Blue Exit Low Beambreak A</t>
-  </si>
-  <si>
-    <t>Blue Exit High Beambreak A</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Near Exit Low Beambreak </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <t>Near Exit High Beambreak B</t>
-  </si>
-  <si>
-    <t>Red Exit Low Beambreak B</t>
-  </si>
-  <si>
-    <t>Red Exit High Beambreak B</t>
-  </si>
-  <si>
-    <t>Far Exit Low Beambreak B</t>
-  </si>
-  <si>
-    <t>Far Exit High Beambreak B</t>
-  </si>
-  <si>
-    <t>Blue Exit Low Beambreak B</t>
-  </si>
-  <si>
-    <t>Blue Exit High Beambreak B</t>
+    <t>Red Charge Station Level</t>
+  </si>
+  <si>
+    <t>Blue Charge Station Level</t>
+  </si>
+  <si>
+    <t>DS0-5</t>
+  </si>
+  <si>
+    <t>Red Charge Station Light</t>
+  </si>
+  <si>
+    <t>DS6/7</t>
+  </si>
+  <si>
+    <t>Blue Charge Station Light</t>
+  </si>
+  <si>
+    <t>IO Link ArmorBlock</t>
+  </si>
+  <si>
+    <t>Not used 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,13 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,14 +371,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,20 +431,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,11 +764,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+      <selection pane="topRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,10 +786,10 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1042,8 +812,8 @@
       <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>108</v>
+      <c r="E2" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -1060,12 +830,10 @@
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -1079,9 +847,7 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -1100,9 +866,7 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -1121,9 +885,7 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -1142,9 +904,7 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>18</v>
@@ -1163,9 +923,7 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>28</v>
@@ -1178,66 +936,62 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1246,13 +1000,11 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1261,13 +1013,11 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1277,14 +1027,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1294,14 +1042,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1310,15 +1056,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1327,15 +1067,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1344,18 +1078,10 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -1363,18 +1089,10 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -1382,18 +1100,10 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -1401,18 +1111,10 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -1420,18 +1122,10 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -1439,18 +1133,10 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1458,18 +1144,10 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
@@ -1477,18 +1155,10 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -1496,18 +1166,10 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -1515,58 +1177,34 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
@@ -1574,14 +1212,10 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
@@ -1589,14 +1223,10 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
@@ -1604,33 +1234,21 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,30 +1268,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -1693,7 +1311,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>4000</v>
@@ -1724,17 +1342,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FDC480-2E9B-4439-9C36-2A6881982E24}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" customWidth="1"/>
     <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1813,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1827,12 +1445,12 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1845,73 +1463,82 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1922,7 +1549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>

--- a/CA-PLC-MB-Reg.xlsx
+++ b/CA-PLC-MB-Reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FRC\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F627F-7C32-4D2E-AA52-9D592CE6CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE438C-1880-4402-81D2-503A9457D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
+    <workbookView xWindow="7320" yWindow="2950" windowWidth="23050" windowHeight="15260" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
   </bookViews>
   <sheets>
     <sheet name="ModBus" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>Field E-stop</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Coils (MB_0)</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>L0.5</t>
   </si>
   <si>
@@ -197,12 +194,6 @@
     <t>10.0.100.49</t>
   </si>
   <si>
-    <t>Layer 4 Switch</t>
-  </si>
-  <si>
-    <t>Spare Stratix 8000 Switch (Layer 2)</t>
-  </si>
-  <si>
     <t>Field Reset Green Light</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>1732e-8IOLM12R</t>
   </si>
   <si>
-    <t>DS8/9</t>
-  </si>
-  <si>
     <t>Red ACC ArmorBlock</t>
   </si>
   <si>
@@ -269,34 +257,166 @@
     <t>Connection Bit 3</t>
   </si>
   <si>
-    <t>Connection Bit 4</t>
-  </si>
-  <si>
     <t>See IP Page</t>
   </si>
   <si>
-    <t>Red Charge Station Level</t>
-  </si>
-  <si>
-    <t>Blue Charge Station Level</t>
-  </si>
-  <si>
-    <t>DS0-5</t>
-  </si>
-  <si>
-    <t>Red Charge Station Light</t>
-  </si>
-  <si>
-    <t>DS6/7</t>
-  </si>
-  <si>
-    <t>Blue Charge Station Light</t>
-  </si>
-  <si>
-    <t>IO Link ArmorBlock</t>
-  </si>
-  <si>
-    <t>Not used 2023</t>
+    <t>Red 1 A-stop</t>
+  </si>
+  <si>
+    <t>Red 2 A-stop</t>
+  </si>
+  <si>
+    <t>Red 3 A-stop</t>
+  </si>
+  <si>
+    <t>Blue 1 A-stop</t>
+  </si>
+  <si>
+    <t>Blue 2 A-stop</t>
+  </si>
+  <si>
+    <t>Blue 3 A-stop</t>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>N/O</t>
+  </si>
+  <si>
+    <t>Red Boost</t>
+  </si>
+  <si>
+    <t>Red Speaker</t>
+  </si>
+  <si>
+    <t>Blue Speaker</t>
+  </si>
+  <si>
+    <t>Red Amp</t>
+  </si>
+  <si>
+    <t>Blue Amp</t>
+  </si>
+  <si>
+    <t>R-IO-0/1</t>
+  </si>
+  <si>
+    <t>B-IO-0/1</t>
+  </si>
+  <si>
+    <t>R-IO-2</t>
+  </si>
+  <si>
+    <t>R-IO-3</t>
+  </si>
+  <si>
+    <t>B-IO-4</t>
+  </si>
+  <si>
+    <t>B-IO-3</t>
+  </si>
+  <si>
+    <t>B-IO-2</t>
+  </si>
+  <si>
+    <t>R-DS-4/5-GS3</t>
+  </si>
+  <si>
+    <t>B-DS-4/5-GS3</t>
+  </si>
+  <si>
+    <t>Speaker Motors</t>
+  </si>
+  <si>
+    <t>DS-0/1-GS1</t>
+  </si>
+  <si>
+    <t>DS-8/9-GS5</t>
+  </si>
+  <si>
+    <t>Red Amp Light 2</t>
+  </si>
+  <si>
+    <t>Blue Amp Light 1</t>
+  </si>
+  <si>
+    <t>Blue Amp Light 2</t>
+  </si>
+  <si>
+    <t>Red Coop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Red Coop Light</t>
+  </si>
+  <si>
+    <t>Blue Coop Light</t>
+  </si>
+  <si>
+    <t>Blue Coop</t>
+  </si>
+  <si>
+    <t>R-IO-4</t>
+  </si>
+  <si>
+    <t>R-IO-5</t>
+  </si>
+  <si>
+    <t>B-IO-5</t>
+  </si>
+  <si>
+    <t>B-IO-6/7</t>
+  </si>
+  <si>
+    <t>R-IO-6/7</t>
+  </si>
+  <si>
+    <t>Red IO Link ArmorBlock</t>
+  </si>
+  <si>
+    <t>Blue IO Link ArmorBlock</t>
+  </si>
+  <si>
+    <t>Not used 2024</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Red Amp Light 1 (Lower)</t>
+  </si>
+  <si>
+    <t>Red Speaker Lights</t>
+  </si>
+  <si>
+    <t>Blue Speaker Lights</t>
+  </si>
+  <si>
+    <t>Red Sub Countdown (10Sec)</t>
+  </si>
+  <si>
+    <t>Blue Sub Countdown (10Sec)</t>
+  </si>
+  <si>
+    <t>RDS-2/3-GS2</t>
+  </si>
+  <si>
+    <t>BDS-2/3-GS2</t>
+  </si>
+  <si>
+    <t>RDS-6/7-GS4</t>
+  </si>
+  <si>
+    <t>BDS-6/7-GS4</t>
+  </si>
+  <si>
+    <t>Layer 3 Switch</t>
+  </si>
+  <si>
+    <t>Blue Boost</t>
   </si>
 </sst>
 </file>
@@ -378,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +508,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,9 +558,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,22 +877,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D38" sqref="D38"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -807,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -828,12 +941,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -842,13 +959,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
@@ -861,13 +982,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
@@ -880,13 +1005,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
@@ -899,10 +1028,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="1"/>
@@ -918,190 +1047,248 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1111,8 +1298,12 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1122,8 +1313,12 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1133,8 +1328,12 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1166,7 +1365,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
@@ -1177,40 +1376,40 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
@@ -1221,7 +1420,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
@@ -1232,7 +1431,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1243,14 +1442,38 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
+    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B37" s="1"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="11"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1268,30 +1491,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -1311,7 +1534,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>4000</v>
@@ -1345,7 +1568,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,61 +1580,61 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1422,153 +1645,155 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>67</v>
+      </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="13"/>
+        <v>67</v>
+      </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CA-PLC-MB-Reg.xlsx
+++ b/CA-PLC-MB-Reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FRC\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\FRC\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE438C-1880-4402-81D2-503A9457D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B6C4C-35DB-4336-AF7D-CADC7963F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2950" windowWidth="23050" windowHeight="15260" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
+    <workbookView xWindow="-15240" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
   </bookViews>
   <sheets>
     <sheet name="ModBus" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
   <si>
     <t>Field E-stop</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Field IO Connection</t>
   </si>
   <si>
-    <t>Match (Counter) Reset</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -278,12 +275,6 @@
     <t>Blue 3 A-stop</t>
   </si>
   <si>
-    <t>N/C</t>
-  </si>
-  <si>
-    <t>N/O</t>
-  </si>
-  <si>
     <t>Red Boost</t>
   </si>
   <si>
@@ -320,12 +311,6 @@
     <t>B-IO-2</t>
   </si>
   <si>
-    <t>R-DS-4/5-GS3</t>
-  </si>
-  <si>
-    <t>B-DS-4/5-GS3</t>
-  </si>
-  <si>
     <t>Speaker Motors</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
     <t>Red Amp Light 2</t>
   </si>
   <si>
-    <t>Blue Amp Light 1</t>
-  </si>
-  <si>
     <t>Blue Amp Light 2</t>
   </si>
   <si>
@@ -368,12 +350,6 @@
     <t>B-IO-5</t>
   </si>
   <si>
-    <t>B-IO-6/7</t>
-  </si>
-  <si>
-    <t>R-IO-6/7</t>
-  </si>
-  <si>
     <t>Red IO Link ArmorBlock</t>
   </si>
   <si>
@@ -395,18 +371,6 @@
     <t>Blue Speaker Lights</t>
   </si>
   <si>
-    <t>Red Sub Countdown (10Sec)</t>
-  </si>
-  <si>
-    <t>Blue Sub Countdown (10Sec)</t>
-  </si>
-  <si>
-    <t>RDS-2/3-GS2</t>
-  </si>
-  <si>
-    <t>BDS-2/3-GS2</t>
-  </si>
-  <si>
     <t>RDS-6/7-GS4</t>
   </si>
   <si>
@@ -417,13 +381,91 @@
   </si>
   <si>
     <t>Blue Boost</t>
+  </si>
+  <si>
+    <t>Counter, A-stop, &amp; E-stop Reset</t>
+  </si>
+  <si>
+    <t>RDS-4/5-GS3</t>
+  </si>
+  <si>
+    <t>BDS-4/5-GS3</t>
+  </si>
+  <si>
+    <t>N/C RDS-14</t>
+  </si>
+  <si>
+    <t>N/C RDS-15</t>
+  </si>
+  <si>
+    <t>N/C RDS-13</t>
+  </si>
+  <si>
+    <t>N/C RDS-12</t>
+  </si>
+  <si>
+    <t>N/C RDS-11</t>
+  </si>
+  <si>
+    <t>N/C RDS-10</t>
+  </si>
+  <si>
+    <t>N/C BDS-15</t>
+  </si>
+  <si>
+    <t>N/C BDS-12</t>
+  </si>
+  <si>
+    <t>N/C BDS-13</t>
+  </si>
+  <si>
+    <t>N/C BDS-10</t>
+  </si>
+  <si>
+    <t>N/C BDS-11</t>
+  </si>
+  <si>
+    <t>N/C L0.1</t>
+  </si>
+  <si>
+    <t>DS-3-GS2</t>
+  </si>
+  <si>
+    <t>RDS-2-GS2</t>
+  </si>
+  <si>
+    <t>BDS-2-GS2</t>
+  </si>
+  <si>
+    <t>Blue Amp Light 1 (Lower)</t>
+  </si>
+  <si>
+    <t>R-IO-6</t>
+  </si>
+  <si>
+    <t>B-IO-6</t>
+  </si>
+  <si>
+    <t>Miscounts</t>
+  </si>
+  <si>
+    <t>Red Sub Countdown (9Sec)</t>
+  </si>
+  <si>
+    <t>Blue Sub Countdown (9Sec)</t>
+  </si>
+  <si>
+    <t>Triggers alliance color to light up, auto cound down over 9 seconds when released</t>
+  </si>
+  <si>
+    <t>Post Match Sub Lights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,13 +532,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -518,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -541,6 +576,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -558,8 +604,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,25 +923,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,7 +958,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -920,20 +966,20 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -941,34 +987,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -977,7 +1023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -985,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -1000,21 +1046,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -1023,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1031,9 +1077,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>18</v>
@@ -1042,15 +1090,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
@@ -1061,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1069,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1"/>
@@ -1077,29 +1125,29 @@
         <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1107,37 +1155,37 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1145,37 +1193,43 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1184,17 +1238,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1205,10 +1259,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -1222,10 +1276,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -1239,10 +1293,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -1256,10 +1310,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -1273,10 +1327,10 @@
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.5">
@@ -1284,25 +1338,29 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
@@ -1314,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
@@ -1329,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
@@ -1491,30 +1549,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -1534,7 +1592,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>4000</v>
@@ -1565,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FDC480-2E9B-4439-9C36-2A6881982E24}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -1654,7 +1712,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1668,10 +1726,10 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1686,10 +1744,10 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1698,16 +1756,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1715,16 +1773,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1732,20 +1790,20 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1753,20 +1811,20 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1794,6 +1852,11 @@
       </c>
       <c r="C23" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CA-PLC-MB-Reg.xlsx
+++ b/CA-PLC-MB-Reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FRC\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFEEA5B-F366-4B66-B256-5189306668B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839A73F-D1AA-43FD-B90E-A27904930820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CE69D38-0F91-4FA8-81CC-8C6DB41FCB82}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>Field E-stop</t>
   </si>
@@ -362,21 +362,6 @@
   </si>
   <si>
     <t>Vivid Hosting</t>
-  </si>
-  <si>
-    <t>Red Foul</t>
-  </si>
-  <si>
-    <t>Blue Foul</t>
-  </si>
-  <si>
-    <t>Red Major Foul</t>
-  </si>
-  <si>
-    <t>Blue Major Foul</t>
-  </si>
-  <si>
-    <t>Match Running</t>
   </si>
   <si>
     <t>RS-GE-2</t>
@@ -852,7 +837,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,12 +899,14 @@
       <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -933,14 +920,18 @@
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -952,15 +943,13 @@
       <c r="C5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -973,15 +962,13 @@
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -994,17 +981,13 @@
       <c r="C7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1017,17 +1000,13 @@
       <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1043,10 +1022,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1061,11 +1040,11 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1081,7 +1060,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>93</v>
@@ -1100,10 +1079,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1119,10 +1098,10 @@
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1138,7 +1117,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>94</v>
@@ -1152,17 +1131,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -1173,16 +1152,12 @@
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -1192,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -1207,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -1222,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
@@ -1237,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
